--- a/collaborations/top_institution_topics.xlsx
+++ b/collaborations/top_institution_topics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,427 +367,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Animal Vocal Communication and Behavior</t>
+          <t>Energy and Environment Impacts</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Developmental Biology</t>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Biochemistry, Genetics and Molecular Biology</t>
+          <t>Environmental Science</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Life Sciences</t>
+          <t>Physical Sciences</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Language and cultural evolution</t>
+          <t>Employment and Welfare Studies</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cultural Studies</t>
+          <t>General Health Professions</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Social Sciences</t>
+          <t>Health Professions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Infant Health and Development</t>
+          <t>Health Sciences</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Agriculture and Farm Safety</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Health Professions</t>
+          <t>Plant Science</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Health Sciences</t>
+          <t>Agricultural and Biological Sciences</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Focus Groups and Qualitative Methods</t>
+          <t>Life Sciences</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sociology and Political Science</t>
+          <t>Mental Health Treatment and Access</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LGBTQ Health, Identity, and Policy</t>
+          <t>Social Psychology</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Social Psychology</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Psychology</t>
+          <t>Social Sciences</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ethics in Clinical Research</t>
+          <t>Cultural Differences and Values</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Public Health, Environmental and Occupational Health</t>
+          <t>Community Health and Development</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Diabetes Management and Education</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mental Health Treatment and Access</t>
+          <t>Endocrinology, Diabetes and Metabolism</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mental Health and Patient Involvement</t>
+          <t>Medicine</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>General Health Professions</t>
+          <t>Chronic Disease Management Strategies</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Schizophrenia research and treatment</t>
+          <t>Epidemiology</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Psychiatry and Mental health</t>
+          <t>Cardiac Health and Mental Health</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Asthma and respiratory diseases</t>
+          <t>Cardiology and Cardiovascular Medicine</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Physiology</t>
+          <t>Participatory Visual Research Methods</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chronic Obstructive Pulmonary Disease (COPD) Research</t>
+          <t>Sociology and Political Science</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pulmonary and Respiratory Medicine</t>
+          <t>Air Quality and Health Impacts</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Respiratory viral infections research</t>
+          <t>Health, Toxicology and Mutagenesis</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epidemiology</t>
+          <t>Menopause: Health Impacts and Treatments</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sex work and related issues</t>
+          <t>Health and Wellbeing Research</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>African Sexualities and LGBTQ+ Issues</t>
+          <t>Sleep and Work-Related Fatigue</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sexuality, Behavior, and Technology</t>
+          <t>Experimental and Cognitive Psychology</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clinical Psychology</t>
+          <t>Cervical Cancer and HPV Research</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Preterm Birth and Chorioamnionitis</t>
+          <t>Vaccine Coverage and Hesitancy</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Global Maternal and Child Health</t>
+          <t>Health</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pediatrics, Perinatology and Child Health</t>
+          <t>Hepatitis B Virus Studies</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pregnancy and preeclampsia studies</t>
+          <t>Child and Adolescent Psychosocial and Emotional Development</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Obstetrics and Gynecology</t>
+          <t>Clinical Psychology</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cervical Cancer and HPV Research</t>
+          <t>Maternal Mental Health During Pregnancy and Postpartum</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Global Cancer Incidence and Screening</t>
+          <t>Public Health, Environmental and Occupational Health</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Oncology</t>
+          <t>Global Maternal and Child Health</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Child Nutrition and Water Access</t>
+          <t>Pediatrics, Perinatology and Child Health</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nutrition and Dietetics</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Nursing</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Child and Adolescent Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Sleep and Work-Related Fatigue</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Experimental and Cognitive Psychology</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Energy and Environment Impacts</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Pollution</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Environmental Science</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Physical Sciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Employment and Welfare Studies</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Influenza Virus Research Studies</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>COVID-19 Clinical Research Studies</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Infectious Diseases</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Demographic Trends and Gender Preferences</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Gender Studies</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Healthcare Systems and Reforms</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Economics, Econometrics and Finance</t>
+          <t>Health disparities and outcomes</t>
         </is>
       </c>
     </row>
